--- a/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ACC5F-EF26-4033-AF30-0ACBB3F95500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71908214-90EC-4246-BC7C-AE3C94714DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10116" yWindow="1932" windowWidth="14028" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,11 +238,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +632,7 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -696,7 +706,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="11">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -776,8 +786,8 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="2">
-        <v>4.2999999999999997E-2</v>
+      <c r="K3" s="11">
+        <v>0.11</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -856,7 +866,7 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="11">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="2">
@@ -938,8 +948,8 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="2">
-        <v>4.1000000000000002E-2</v>
+      <c r="K5" s="11">
+        <v>0.11</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1018,7 +1028,7 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="11">
         <v>0.05</v>
       </c>
       <c r="L6" s="2">
@@ -1098,8 +1108,8 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="K7" s="2">
-        <v>3.4</v>
+      <c r="K7" s="11">
+        <v>1.8</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1184,8 +1194,8 @@
       <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="K8" s="2">
-        <v>3.4</v>
+      <c r="K8" s="11">
+        <v>1.8</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1268,8 +1278,8 @@
       <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="K9" s="2">
-        <v>3.4</v>
+      <c r="K9" s="11">
+        <v>1.8</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>

--- a/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71908214-90EC-4246-BC7C-AE3C94714DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059E69B6-7E5B-43C6-BB25-A3B699DCECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10116" yWindow="1932" windowWidth="14028" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,10 +237,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O9"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +622,7 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -706,7 +696,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -786,8 +776,8 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="K3" s="11">
-        <v>0.11</v>
+      <c r="K3" s="2">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -866,7 +856,7 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4" s="2">
@@ -948,8 +938,8 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="11">
-        <v>0.11</v>
+      <c r="K5" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1028,7 +1018,7 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="2">
         <v>0.05</v>
       </c>
       <c r="L6" s="2">
@@ -1108,8 +1098,8 @@
       <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="K7" s="11">
-        <v>1.8</v>
+      <c r="K7" s="2">
+        <v>2</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1194,8 +1184,8 @@
       <c r="J8">
         <v>0.1</v>
       </c>
-      <c r="K8" s="11">
-        <v>1.8</v>
+      <c r="K8" s="2">
+        <v>2</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1278,8 +1268,8 @@
       <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="K9" s="11">
-        <v>1.8</v>
+      <c r="K9" s="2">
+        <v>2</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>

--- a/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059E69B6-7E5B-43C6-BB25-A3B699DCECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D45F732-B944-404A-8430-30850FDE8476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>price_sigma</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B10" sqref="B10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,11 +1327,84 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="T10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">

--- a/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D45F732-B944-404A-8430-30850FDE8476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059E69B6-7E5B-43C6-BB25-A3B699DCECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>price_sigma</t>
-  </si>
-  <si>
-    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Z10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,84 +1324,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="P10" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>9999</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.41949999999999998</v>
-      </c>
-      <c r="T10">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>80</v>
-      </c>
-      <c r="X10">
-        <v>10</v>
-      </c>
-      <c r="Y10">
-        <v>60</v>
-      </c>
-      <c r="Z10">
-        <v>100</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">

--- a/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059E69B6-7E5B-43C6-BB25-A3B699DCECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD9D6E2-BAA4-4F84-A988-848B3F9CEF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>price_sigma</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -566,7 +579,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B10" sqref="B10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,55 +1337,135 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <f>O10*0.5</f>
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="T10" s="9">
+        <f>P10*0.5</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A10:L10 A11:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A11:XFD1048576 A10:J10 S10:Z10">
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:P4">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:XFD3">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R10">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S7">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:T10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="S8:T9">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:XFD10">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="U5:XFD9 AA10:XFD10">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:P10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_transport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD9D6E2-BAA4-4F84-A988-848B3F9CEF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D87CB1E-12C1-4F09-8CE0-6446871D7C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,12 +244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -579,7 +574,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Z10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,47 +1415,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A11:XFD1048576 A10:J10 S10:Z10">
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:P4">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P8">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:XFD3">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R10">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S7">
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:T9">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:XFD9 AA10:XFD10">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
